--- a/Output/TopPercentage_Report_Rebalancing_BR.xlsx
+++ b/Output/TopPercentage_Report_Rebalancing_BR.xlsx
@@ -7,16 +7,56 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GMSR_Historical" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>GMSR_Developed</t>
+  </si>
+  <si>
+    <t>GMSR_Developed_Upper</t>
+  </si>
+  <si>
+    <t>GMSR_Developed_Lower</t>
+  </si>
+  <si>
+    <t>GMSR_Emerging</t>
+  </si>
+  <si>
+    <t>GMSR_Emerging_Upper</t>
+  </si>
+  <si>
+    <t>GMSR_Emerging_Lower</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +80,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +399,1365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>41078</v>
+      </c>
+      <c r="B2">
+        <v>4033951021.658198</v>
+      </c>
+      <c r="C2">
+        <v>4639043674.906927</v>
+      </c>
+      <c r="D2">
+        <v>2016975510.829099</v>
+      </c>
+      <c r="E2">
+        <v>2016975510.829099</v>
+      </c>
+      <c r="F2">
+        <v>2319521837.453464</v>
+      </c>
+      <c r="G2">
+        <v>1008487755.414549</v>
+      </c>
+      <c r="H2">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>41176</v>
+      </c>
+      <c r="B3">
+        <v>4395213810</v>
+      </c>
+      <c r="C3">
+        <v>5054495881.5</v>
+      </c>
+      <c r="D3">
+        <v>2197606905</v>
+      </c>
+      <c r="E3">
+        <v>2197606905</v>
+      </c>
+      <c r="F3">
+        <v>2527247940.75</v>
+      </c>
+      <c r="G3">
+        <v>1098803452.5</v>
+      </c>
+      <c r="H3">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>41267</v>
+      </c>
+      <c r="B4">
+        <v>4503973160.12</v>
+      </c>
+      <c r="C4">
+        <v>5179569134.138</v>
+      </c>
+      <c r="D4">
+        <v>2251986580.06</v>
+      </c>
+      <c r="E4">
+        <v>2251986580.06</v>
+      </c>
+      <c r="F4">
+        <v>2589784567.069</v>
+      </c>
+      <c r="G4">
+        <v>1125993290.03</v>
+      </c>
+      <c r="H4">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>41351</v>
+      </c>
+      <c r="B5">
+        <v>5030817219.844417</v>
+      </c>
+      <c r="C5">
+        <v>5785439802.821078</v>
+      </c>
+      <c r="D5">
+        <v>2515408609.922208</v>
+      </c>
+      <c r="E5">
+        <v>2515408609.922208</v>
+      </c>
+      <c r="F5">
+        <v>2892719901.410539</v>
+      </c>
+      <c r="G5">
+        <v>1257704304.961104</v>
+      </c>
+      <c r="H5">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>41449</v>
+      </c>
+      <c r="B6">
+        <v>5159756787.471322</v>
+      </c>
+      <c r="C6">
+        <v>5933720305.59202</v>
+      </c>
+      <c r="D6">
+        <v>2579878393.735661</v>
+      </c>
+      <c r="E6">
+        <v>2579878393.735661</v>
+      </c>
+      <c r="F6">
+        <v>2966860152.79601</v>
+      </c>
+      <c r="G6">
+        <v>1289939196.867831</v>
+      </c>
+      <c r="H6">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>41540</v>
+      </c>
+      <c r="B7">
+        <v>5175128105.63</v>
+      </c>
+      <c r="C7">
+        <v>5951397321.4745</v>
+      </c>
+      <c r="D7">
+        <v>2587564052.815</v>
+      </c>
+      <c r="E7">
+        <v>2587564052.815</v>
+      </c>
+      <c r="F7">
+        <v>2975698660.73725</v>
+      </c>
+      <c r="G7">
+        <v>1293782026.4075</v>
+      </c>
+      <c r="H7">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>41631</v>
+      </c>
+      <c r="B8">
+        <v>5626835949.30529</v>
+      </c>
+      <c r="C8">
+        <v>6470861341.701083</v>
+      </c>
+      <c r="D8">
+        <v>2813417974.652645</v>
+      </c>
+      <c r="E8">
+        <v>2813417974.652645</v>
+      </c>
+      <c r="F8">
+        <v>3235430670.850542</v>
+      </c>
+      <c r="G8">
+        <v>1406708987.326323</v>
+      </c>
+      <c r="H8">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>41722</v>
+      </c>
+      <c r="B9">
+        <v>6077055600</v>
+      </c>
+      <c r="C9">
+        <v>6988613939.999999</v>
+      </c>
+      <c r="D9">
+        <v>3038527800</v>
+      </c>
+      <c r="E9">
+        <v>3038527800</v>
+      </c>
+      <c r="F9">
+        <v>3494306970</v>
+      </c>
+      <c r="G9">
+        <v>1519263900</v>
+      </c>
+      <c r="H9">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>41813</v>
+      </c>
+      <c r="B10">
+        <v>6152006986.174545</v>
+      </c>
+      <c r="C10">
+        <v>7074808034.100726</v>
+      </c>
+      <c r="D10">
+        <v>3076003493.087273</v>
+      </c>
+      <c r="E10">
+        <v>3076003493.087273</v>
+      </c>
+      <c r="F10">
+        <v>3537404017.050363</v>
+      </c>
+      <c r="G10">
+        <v>1538001746.543636</v>
+      </c>
+      <c r="H10">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>41904</v>
+      </c>
+      <c r="B11">
+        <v>6292671288.161325</v>
+      </c>
+      <c r="C11">
+        <v>7236571981.385523</v>
+      </c>
+      <c r="D11">
+        <v>3146335644.080662</v>
+      </c>
+      <c r="E11">
+        <v>3146335644.080662</v>
+      </c>
+      <c r="F11">
+        <v>3618285990.692761</v>
+      </c>
+      <c r="G11">
+        <v>1573167822.040331</v>
+      </c>
+      <c r="H11">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>41995</v>
+      </c>
+      <c r="B12">
+        <v>5732620963.8</v>
+      </c>
+      <c r="C12">
+        <v>6592514108.37</v>
+      </c>
+      <c r="D12">
+        <v>2866310481.9</v>
+      </c>
+      <c r="E12">
+        <v>2866310481.9</v>
+      </c>
+      <c r="F12">
+        <v>3296257054.185</v>
+      </c>
+      <c r="G12">
+        <v>1433155240.95</v>
+      </c>
+      <c r="H12">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>42086</v>
+      </c>
+      <c r="B13">
+        <v>6492937500.000001</v>
+      </c>
+      <c r="C13">
+        <v>7466878125.000001</v>
+      </c>
+      <c r="D13">
+        <v>3246468750</v>
+      </c>
+      <c r="E13">
+        <v>3246468750</v>
+      </c>
+      <c r="F13">
+        <v>3733439062.5</v>
+      </c>
+      <c r="G13">
+        <v>1623234375</v>
+      </c>
+      <c r="H13">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2">
+        <v>42177</v>
+      </c>
+      <c r="B14">
+        <v>6391474298.523724</v>
+      </c>
+      <c r="C14">
+        <v>7350195443.302281</v>
+      </c>
+      <c r="D14">
+        <v>3195737149.261862</v>
+      </c>
+      <c r="E14">
+        <v>3195737149.261862</v>
+      </c>
+      <c r="F14">
+        <v>3675097721.651141</v>
+      </c>
+      <c r="G14">
+        <v>1597868574.630931</v>
+      </c>
+      <c r="H14">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
+        <v>42268</v>
+      </c>
+      <c r="B15">
+        <v>6086306827.141665</v>
+      </c>
+      <c r="C15">
+        <v>6999252851.212914</v>
+      </c>
+      <c r="D15">
+        <v>3043153413.570833</v>
+      </c>
+      <c r="E15">
+        <v>3043153413.570833</v>
+      </c>
+      <c r="F15">
+        <v>3499626425.606457</v>
+      </c>
+      <c r="G15">
+        <v>1521576706.785416</v>
+      </c>
+      <c r="H15">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2">
+        <v>42359</v>
+      </c>
+      <c r="B16">
+        <v>6137183785.536448</v>
+      </c>
+      <c r="C16">
+        <v>7057761353.366915</v>
+      </c>
+      <c r="D16">
+        <v>3068591892.768224</v>
+      </c>
+      <c r="E16">
+        <v>3068591892.768224</v>
+      </c>
+      <c r="F16">
+        <v>3528880676.683457</v>
+      </c>
+      <c r="G16">
+        <v>1534295946.384112</v>
+      </c>
+      <c r="H16">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2">
+        <v>42450</v>
+      </c>
+      <c r="B17">
+        <v>5330031391.44</v>
+      </c>
+      <c r="C17">
+        <v>6129536100.155999</v>
+      </c>
+      <c r="D17">
+        <v>2665015695.72</v>
+      </c>
+      <c r="E17">
+        <v>2665015695.72</v>
+      </c>
+      <c r="F17">
+        <v>3064768050.078</v>
+      </c>
+      <c r="G17">
+        <v>1332507847.86</v>
+      </c>
+      <c r="H17">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2">
+        <v>42541</v>
+      </c>
+      <c r="B18">
+        <v>6175782206.94</v>
+      </c>
+      <c r="C18">
+        <v>7102149537.980999</v>
+      </c>
+      <c r="D18">
+        <v>3087891103.47</v>
+      </c>
+      <c r="E18">
+        <v>3087891103.47</v>
+      </c>
+      <c r="F18">
+        <v>3551074768.990499</v>
+      </c>
+      <c r="G18">
+        <v>1543945551.735</v>
+      </c>
+      <c r="H18">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2">
+        <v>42632</v>
+      </c>
+      <c r="B19">
+        <v>6366023378.160969</v>
+      </c>
+      <c r="C19">
+        <v>7320926884.885114</v>
+      </c>
+      <c r="D19">
+        <v>3183011689.080484</v>
+      </c>
+      <c r="E19">
+        <v>3183011689.080484</v>
+      </c>
+      <c r="F19">
+        <v>3660463442.442557</v>
+      </c>
+      <c r="G19">
+        <v>1591505844.540242</v>
+      </c>
+      <c r="H19">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2">
+        <v>42723</v>
+      </c>
+      <c r="B20">
+        <v>6196072640.91</v>
+      </c>
+      <c r="C20">
+        <v>7125483537.046499</v>
+      </c>
+      <c r="D20">
+        <v>3098036320.455</v>
+      </c>
+      <c r="E20">
+        <v>3098036320.455</v>
+      </c>
+      <c r="F20">
+        <v>3562741768.52325</v>
+      </c>
+      <c r="G20">
+        <v>1549018160.2275</v>
+      </c>
+      <c r="H20">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2">
+        <v>42814</v>
+      </c>
+      <c r="B21">
+        <v>6656118900.64245</v>
+      </c>
+      <c r="C21">
+        <v>7654536735.738817</v>
+      </c>
+      <c r="D21">
+        <v>3328059450.321225</v>
+      </c>
+      <c r="E21">
+        <v>3328059450.321225</v>
+      </c>
+      <c r="F21">
+        <v>3827268367.869409</v>
+      </c>
+      <c r="G21">
+        <v>1664029725.160613</v>
+      </c>
+      <c r="H21">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2">
+        <v>42905</v>
+      </c>
+      <c r="B22">
+        <v>7087378976.920464</v>
+      </c>
+      <c r="C22">
+        <v>8150485823.458532</v>
+      </c>
+      <c r="D22">
+        <v>3543689488.460232</v>
+      </c>
+      <c r="E22">
+        <v>3543689488.460232</v>
+      </c>
+      <c r="F22">
+        <v>4075242911.729266</v>
+      </c>
+      <c r="G22">
+        <v>1771844744.230116</v>
+      </c>
+      <c r="H22">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2">
+        <v>42996</v>
+      </c>
+      <c r="B23">
+        <v>7211653780.207572</v>
+      </c>
+      <c r="C23">
+        <v>8293401847.238708</v>
+      </c>
+      <c r="D23">
+        <v>3605826890.103786</v>
+      </c>
+      <c r="E23">
+        <v>3605826890.103786</v>
+      </c>
+      <c r="F23">
+        <v>4146700923.619354</v>
+      </c>
+      <c r="G23">
+        <v>1802913445.051893</v>
+      </c>
+      <c r="H23">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2">
+        <v>43087</v>
+      </c>
+      <c r="B24">
+        <v>7651933973.32</v>
+      </c>
+      <c r="C24">
+        <v>8799724069.317999</v>
+      </c>
+      <c r="D24">
+        <v>3825966986.66</v>
+      </c>
+      <c r="E24">
+        <v>3825966986.66</v>
+      </c>
+      <c r="F24">
+        <v>4399862034.658999</v>
+      </c>
+      <c r="G24">
+        <v>1912983493.33</v>
+      </c>
+      <c r="H24">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2">
+        <v>43178</v>
+      </c>
+      <c r="B25">
+        <v>7901945040.701402</v>
+      </c>
+      <c r="C25">
+        <v>9087236796.806612</v>
+      </c>
+      <c r="D25">
+        <v>3950972520.350701</v>
+      </c>
+      <c r="E25">
+        <v>3950972520.350701</v>
+      </c>
+      <c r="F25">
+        <v>4543618398.403306</v>
+      </c>
+      <c r="G25">
+        <v>1975486260.17535</v>
+      </c>
+      <c r="H25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2">
+        <v>43269</v>
+      </c>
+      <c r="B26">
+        <v>7804700846.412703</v>
+      </c>
+      <c r="C26">
+        <v>8975405973.374607</v>
+      </c>
+      <c r="D26">
+        <v>3902350423.206351</v>
+      </c>
+      <c r="E26">
+        <v>3902350423.206351</v>
+      </c>
+      <c r="F26">
+        <v>4487702986.687304</v>
+      </c>
+      <c r="G26">
+        <v>1951175211.603176</v>
+      </c>
+      <c r="H26">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2">
+        <v>43367</v>
+      </c>
+      <c r="B27">
+        <v>8016303462.96</v>
+      </c>
+      <c r="C27">
+        <v>9218748982.403999</v>
+      </c>
+      <c r="D27">
+        <v>4008151731.48</v>
+      </c>
+      <c r="E27">
+        <v>4008151731.48</v>
+      </c>
+      <c r="F27">
+        <v>4609374491.202</v>
+      </c>
+      <c r="G27">
+        <v>2004075865.74</v>
+      </c>
+      <c r="H27">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2">
+        <v>43458</v>
+      </c>
+      <c r="B28">
+        <v>7168272204.049824</v>
+      </c>
+      <c r="C28">
+        <v>8243513034.657297</v>
+      </c>
+      <c r="D28">
+        <v>3584136102.024912</v>
+      </c>
+      <c r="E28">
+        <v>3584136102.024912</v>
+      </c>
+      <c r="F28">
+        <v>4121756517.328649</v>
+      </c>
+      <c r="G28">
+        <v>1792068051.012456</v>
+      </c>
+      <c r="H28">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2">
+        <v>43542</v>
+      </c>
+      <c r="B29">
+        <v>7488495032.783867</v>
+      </c>
+      <c r="C29">
+        <v>8611769287.701447</v>
+      </c>
+      <c r="D29">
+        <v>3744247516.391933</v>
+      </c>
+      <c r="E29">
+        <v>3744247516.391933</v>
+      </c>
+      <c r="F29">
+        <v>4305884643.850723</v>
+      </c>
+      <c r="G29">
+        <v>1872123758.195967</v>
+      </c>
+      <c r="H29">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2">
+        <v>43640</v>
+      </c>
+      <c r="B30">
+        <v>6447052413.962857</v>
+      </c>
+      <c r="C30">
+        <v>7414110276.057285</v>
+      </c>
+      <c r="D30">
+        <v>3223526206.981429</v>
+      </c>
+      <c r="E30">
+        <v>3223526206.981429</v>
+      </c>
+      <c r="F30">
+        <v>3707055138.028643</v>
+      </c>
+      <c r="G30">
+        <v>1611763103.490714</v>
+      </c>
+      <c r="H30">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2">
+        <v>43731</v>
+      </c>
+      <c r="B31">
+        <v>7126618684.433153</v>
+      </c>
+      <c r="C31">
+        <v>8195611487.098125</v>
+      </c>
+      <c r="D31">
+        <v>3563309342.216577</v>
+      </c>
+      <c r="E31">
+        <v>3563309342.216577</v>
+      </c>
+      <c r="F31">
+        <v>4097805743.549063</v>
+      </c>
+      <c r="G31">
+        <v>1781654671.108288</v>
+      </c>
+      <c r="H31">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2">
+        <v>43822</v>
+      </c>
+      <c r="B32">
+        <v>7581706414.576651</v>
+      </c>
+      <c r="C32">
+        <v>8718962376.763147</v>
+      </c>
+      <c r="D32">
+        <v>3790853207.288325</v>
+      </c>
+      <c r="E32">
+        <v>3790853207.288325</v>
+      </c>
+      <c r="F32">
+        <v>4359481188.381574</v>
+      </c>
+      <c r="G32">
+        <v>1895426603.644163</v>
+      </c>
+      <c r="H32">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2">
+        <v>43913</v>
+      </c>
+      <c r="B33">
+        <v>6899499835.008763</v>
+      </c>
+      <c r="C33">
+        <v>7934424810.260077</v>
+      </c>
+      <c r="D33">
+        <v>3449749917.504382</v>
+      </c>
+      <c r="E33">
+        <v>3449749917.504382</v>
+      </c>
+      <c r="F33">
+        <v>3967212405.130039</v>
+      </c>
+      <c r="G33">
+        <v>1724874958.752191</v>
+      </c>
+      <c r="H33">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B34">
+        <v>6688586395.76</v>
+      </c>
+      <c r="C34">
+        <v>7691874355.124</v>
+      </c>
+      <c r="D34">
+        <v>3344293197.88</v>
+      </c>
+      <c r="E34">
+        <v>3344293197.88</v>
+      </c>
+      <c r="F34">
+        <v>3845937177.562</v>
+      </c>
+      <c r="G34">
+        <v>1672146598.94</v>
+      </c>
+      <c r="H34">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B35">
+        <v>7541885192.804137</v>
+      </c>
+      <c r="C35">
+        <v>8673167971.724756</v>
+      </c>
+      <c r="D35">
+        <v>3770942596.402069</v>
+      </c>
+      <c r="E35">
+        <v>3770942596.402069</v>
+      </c>
+      <c r="F35">
+        <v>4336583985.862378</v>
+      </c>
+      <c r="G35">
+        <v>1885471298.201034</v>
+      </c>
+      <c r="H35">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B36">
+        <v>8233588447.597952</v>
+      </c>
+      <c r="C36">
+        <v>9468626714.737644</v>
+      </c>
+      <c r="D36">
+        <v>4116794223.798976</v>
+      </c>
+      <c r="E36">
+        <v>4116794223.798976</v>
+      </c>
+      <c r="F36">
+        <v>4734313357.368822</v>
+      </c>
+      <c r="G36">
+        <v>2058397111.899488</v>
+      </c>
+      <c r="H36">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2">
+        <v>44277</v>
+      </c>
+      <c r="B37">
+        <v>8303800045.570001</v>
+      </c>
+      <c r="C37">
+        <v>9549370052.4055</v>
+      </c>
+      <c r="D37">
+        <v>4151900022.785</v>
+      </c>
+      <c r="E37">
+        <v>4151900022.785</v>
+      </c>
+      <c r="F37">
+        <v>4774685026.20275</v>
+      </c>
+      <c r="G37">
+        <v>2075950011.3925</v>
+      </c>
+      <c r="H37">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2">
+        <v>44368</v>
+      </c>
+      <c r="B38">
+        <v>9388426260.745741</v>
+      </c>
+      <c r="C38">
+        <v>10796690199.8576</v>
+      </c>
+      <c r="D38">
+        <v>4694213130.37287</v>
+      </c>
+      <c r="E38">
+        <v>4694213130.37287</v>
+      </c>
+      <c r="F38">
+        <v>5398345099.928801</v>
+      </c>
+      <c r="G38">
+        <v>2347106565.186435</v>
+      </c>
+      <c r="H38">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2">
+        <v>44459</v>
+      </c>
+      <c r="B39">
+        <v>9676254438.799999</v>
+      </c>
+      <c r="C39">
+        <v>11127692604.62</v>
+      </c>
+      <c r="D39">
+        <v>4838127219.4</v>
+      </c>
+      <c r="E39">
+        <v>4838127219.4</v>
+      </c>
+      <c r="F39">
+        <v>5563846302.309999</v>
+      </c>
+      <c r="G39">
+        <v>2419063609.7</v>
+      </c>
+      <c r="H39">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2">
+        <v>44550</v>
+      </c>
+      <c r="B40">
+        <v>9075294613</v>
+      </c>
+      <c r="C40">
+        <v>10436588804.95</v>
+      </c>
+      <c r="D40">
+        <v>4537647306.5</v>
+      </c>
+      <c r="E40">
+        <v>4537647306.5</v>
+      </c>
+      <c r="F40">
+        <v>5218294402.474999</v>
+      </c>
+      <c r="G40">
+        <v>2268823653.25</v>
+      </c>
+      <c r="H40">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2">
+        <v>44641</v>
+      </c>
+      <c r="B41">
+        <v>8761903438.610001</v>
+      </c>
+      <c r="C41">
+        <v>10076188954.4015</v>
+      </c>
+      <c r="D41">
+        <v>4380951719.305</v>
+      </c>
+      <c r="E41">
+        <v>4380951719.305</v>
+      </c>
+      <c r="F41">
+        <v>5038094477.20075</v>
+      </c>
+      <c r="G41">
+        <v>2190475859.6525</v>
+      </c>
+      <c r="H41">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2">
+        <v>44732</v>
+      </c>
+      <c r="B42">
+        <v>7903614832.5</v>
+      </c>
+      <c r="C42">
+        <v>9089157057.375</v>
+      </c>
+      <c r="D42">
+        <v>3951807416.25</v>
+      </c>
+      <c r="E42">
+        <v>3951807416.25</v>
+      </c>
+      <c r="F42">
+        <v>4544578528.6875</v>
+      </c>
+      <c r="G42">
+        <v>1975903708.125</v>
+      </c>
+      <c r="H42">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B43">
+        <v>7421487496.5</v>
+      </c>
+      <c r="C43">
+        <v>8534710620.974999</v>
+      </c>
+      <c r="D43">
+        <v>3710743748.25</v>
+      </c>
+      <c r="E43">
+        <v>3710743748.25</v>
+      </c>
+      <c r="F43">
+        <v>4267355310.4875</v>
+      </c>
+      <c r="G43">
+        <v>1855371874.125</v>
+      </c>
+      <c r="H43">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="2">
+        <v>44914</v>
+      </c>
+      <c r="B44">
+        <v>6916126653.902941</v>
+      </c>
+      <c r="C44">
+        <v>7953545651.988381</v>
+      </c>
+      <c r="D44">
+        <v>3458063326.95147</v>
+      </c>
+      <c r="E44">
+        <v>3458063326.95147</v>
+      </c>
+      <c r="F44">
+        <v>3976772825.994191</v>
+      </c>
+      <c r="G44">
+        <v>1729031663.475735</v>
+      </c>
+      <c r="H44">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="2">
+        <v>45005</v>
+      </c>
+      <c r="B45">
+        <v>7885092447.918556</v>
+      </c>
+      <c r="C45">
+        <v>9067856315.106339</v>
+      </c>
+      <c r="D45">
+        <v>3942546223.959278</v>
+      </c>
+      <c r="E45">
+        <v>3942546223.959278</v>
+      </c>
+      <c r="F45">
+        <v>4533928157.553169</v>
+      </c>
+      <c r="G45">
+        <v>1971273111.979639</v>
+      </c>
+      <c r="H45">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B46">
+        <v>7466490403.94378</v>
+      </c>
+      <c r="C46">
+        <v>8586463964.535346</v>
+      </c>
+      <c r="D46">
+        <v>3733245201.97189</v>
+      </c>
+      <c r="E46">
+        <v>3733245201.97189</v>
+      </c>
+      <c r="F46">
+        <v>4293231982.267673</v>
+      </c>
+      <c r="G46">
+        <v>1866622600.985945</v>
+      </c>
+      <c r="H46">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="2">
+        <v>45187</v>
+      </c>
+      <c r="B47">
+        <v>8080975355.286669</v>
+      </c>
+      <c r="C47">
+        <v>9293121658.579668</v>
+      </c>
+      <c r="D47">
+        <v>4040487677.643334</v>
+      </c>
+      <c r="E47">
+        <v>4040487677.643334</v>
+      </c>
+      <c r="F47">
+        <v>4646560829.289834</v>
+      </c>
+      <c r="G47">
+        <v>2020243838.821667</v>
+      </c>
+      <c r="H47">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B48">
+        <v>8196169150.110874</v>
+      </c>
+      <c r="C48">
+        <v>9425594522.627504</v>
+      </c>
+      <c r="D48">
+        <v>4098084575.055437</v>
+      </c>
+      <c r="E48">
+        <v>4098084575.055437</v>
+      </c>
+      <c r="F48">
+        <v>4712797261.313752</v>
+      </c>
+      <c r="G48">
+        <v>2049042287.527719</v>
+      </c>
+      <c r="H48">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="2">
+        <v>45369</v>
+      </c>
+      <c r="B49">
+        <v>9349673612.6</v>
+      </c>
+      <c r="C49">
+        <v>10752124654.49</v>
+      </c>
+      <c r="D49">
+        <v>4674836806.3</v>
+      </c>
+      <c r="E49">
+        <v>4674836806.3</v>
+      </c>
+      <c r="F49">
+        <v>5376062327.245</v>
+      </c>
+      <c r="G49">
+        <v>2337418403.15</v>
+      </c>
+      <c r="H49">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="2">
+        <v>45467</v>
+      </c>
+      <c r="B50">
+        <v>9514964374.408499</v>
+      </c>
+      <c r="C50">
+        <v>10942209030.56977</v>
+      </c>
+      <c r="D50">
+        <v>4757482187.204249</v>
+      </c>
+      <c r="E50">
+        <v>4757482187.204249</v>
+      </c>
+      <c r="F50">
+        <v>5471104515.284886</v>
+      </c>
+      <c r="G50">
+        <v>2378741093.602125</v>
+      </c>
+      <c r="H50">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2">
+        <v>45558</v>
+      </c>
+      <c r="B51">
+        <v>9948012194.466745</v>
+      </c>
+      <c r="C51">
+        <v>11440214023.63676</v>
+      </c>
+      <c r="D51">
+        <v>4974006097.233373</v>
+      </c>
+      <c r="E51">
+        <v>4974006097.233373</v>
+      </c>
+      <c r="F51">
+        <v>5720107011.818378</v>
+      </c>
+      <c r="G51">
+        <v>2487003048.616686</v>
+      </c>
+      <c r="H51">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="2">
+        <v>45649</v>
+      </c>
+      <c r="B52">
+        <v>10627959690</v>
+      </c>
+      <c r="C52">
+        <v>12222153643.5</v>
+      </c>
+      <c r="D52">
+        <v>5313979845</v>
+      </c>
+      <c r="E52">
+        <v>5313979845</v>
+      </c>
+      <c r="F52">
+        <v>6111076821.75</v>
+      </c>
+      <c r="G52">
+        <v>2656989922.5</v>
+      </c>
+      <c r="H52">
+        <v>1072</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>